--- a/Documentación/Documentación Diseño/Confiabilidad.xlsx
+++ b/Documentación/Documentación Diseño/Confiabilidad.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glinares\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Documents\Informatica\Tesis-LGBS\Documentación\Documentación Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD27D8B-F293-4A12-9AB5-C259F0798AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C3B3D8-40AC-4042-AC3C-753534BF1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2F866EF-2114-45E6-8A96-64F5B5ACC2C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2F866EF-2114-45E6-8A96-64F5B5ACC2C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sistema" sheetId="14" r:id="rId1"/>
+    <sheet name="MainBoard" sheetId="10" r:id="rId2"/>
+    <sheet name="ExpBoard" sheetId="7" r:id="rId3"/>
+    <sheet name="DiffDrivers" sheetId="12" r:id="rId4"/>
+    <sheet name="CAN" sheetId="13" r:id="rId5"/>
+    <sheet name="Flyback" sheetId="6" r:id="rId6"/>
+    <sheet name="Buck" sheetId="1" r:id="rId7"/>
+    <sheet name="Sensores de corriente" sheetId="3" r:id="rId8"/>
+    <sheet name="ModulosTrifasica" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="76">
   <si>
     <t>C</t>
   </si>
@@ -150,6 +158,120 @@
   </si>
   <si>
     <t>MTTF (A)</t>
+  </si>
+  <si>
+    <t>λ_R1.8K</t>
+  </si>
+  <si>
+    <t>λ_ACS724</t>
+  </si>
+  <si>
+    <t>λ_OPA314</t>
+  </si>
+  <si>
+    <t>λ_ADS7044</t>
+  </si>
+  <si>
+    <t>ACS724</t>
+  </si>
+  <si>
+    <t>OPA314</t>
+  </si>
+  <si>
+    <t>ADS7044</t>
+  </si>
+  <si>
+    <t>λ_C22n</t>
+  </si>
+  <si>
+    <t>22 nF</t>
+  </si>
+  <si>
+    <t>BJT</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>Opto</t>
+  </si>
+  <si>
+    <t>λ_C</t>
+  </si>
+  <si>
+    <t>λ_R</t>
+  </si>
+  <si>
+    <t>λ_TLP152TPLE</t>
+  </si>
+  <si>
+    <t>λ_MOSFET</t>
+  </si>
+  <si>
+    <t>λ_BJT</t>
+  </si>
+  <si>
+    <t>λ_Diodo</t>
+  </si>
+  <si>
+    <t>Diodo sw</t>
+  </si>
+  <si>
+    <t>λ_flyback</t>
+  </si>
+  <si>
+    <t>λ_buck</t>
+  </si>
+  <si>
+    <t>λ_trifasica</t>
+  </si>
+  <si>
+    <t>λ_FPGA</t>
+  </si>
+  <si>
+    <t>λ_uC</t>
+  </si>
+  <si>
+    <t>MTBF (hs)</t>
+  </si>
+  <si>
+    <t>MTBF (D)</t>
+  </si>
+  <si>
+    <t>MTBF (M)</t>
+  </si>
+  <si>
+    <t>MTBF (A)</t>
+  </si>
+  <si>
+    <t>λ_RJ45</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>λ_LVDS</t>
+  </si>
+  <si>
+    <t>LVDS</t>
+  </si>
+  <si>
+    <t>λ_MCP</t>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>λ_CAN</t>
+  </si>
+  <si>
+    <t>λ_diff</t>
+  </si>
+  <si>
+    <t>λ_main</t>
+  </si>
+  <si>
+    <t>λ_exp</t>
   </si>
 </sst>
 </file>
@@ -219,14 +341,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,59 +683,2022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1D4930-3DF9-49A8-9EF1-BC882B7E346A}">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="B8">
+        <f>MainBoard!$B$12</f>
+        <v>1454.4455817920971</v>
+      </c>
+      <c r="C8">
+        <f>ExpBoard!$B$12</f>
+        <v>1444.3988889679015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B8:H8)</f>
+        <v>2898.8444707599983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>344965.04041068029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>95.823622336300076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>3.091084591493551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>0.2575903826244626</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F80BDC6-2D39-47FE-AB53-C640B7E03374}">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="B8">
+        <f>CAN!$B$12</f>
+        <v>44.262323104416936</v>
+      </c>
+      <c r="C8">
+        <f>Buck!$B$12</f>
+        <v>102.75182149239646</v>
+      </c>
+      <c r="D8">
+        <f>ModulosTrifasica!B12</f>
+        <v>822.64689084066345</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>240</v>
+      </c>
+      <c r="G8">
+        <f>DiffDrivers!B12</f>
+        <v>30.288075381451019</v>
+      </c>
+      <c r="H8">
+        <f>Flyback!$B$12</f>
+        <v>248.71210125339041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>SUM(E8:H8)+SUM(B8:C8)+2*D8/3</f>
+        <v>1454.4455817920971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>687547.20872254879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>190.98533575626357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>6.1608172824601146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>0.51340144020500955</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42135390-FCFE-4F44-96A7-EFFCC7AF506B}">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="B8">
+        <f>Flyback!$B$12</f>
+        <v>248.71210125339041</v>
+      </c>
+      <c r="C8">
+        <f>Buck!$B$12</f>
+        <v>102.75182149239646</v>
+      </c>
+      <c r="D8">
+        <f>ModulosTrifasica!B12</f>
+        <v>822.64689084066345</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <f>DiffDrivers!B12</f>
+        <v>30.288075381451019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B8:F8)</f>
+        <v>1444.3988889679015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>692329.52727798908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>192.31375757721918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>6.2036695992651349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>0.51697246660542795</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E31671-8C54-4604-B579-B1C048167AB8}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="C8">
+        <f>N3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="D8">
+        <f>V3*$L$3*C3*$I$3</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="E8">
+        <f>AA3*$L$3*D3*$I$3</f>
+        <v>0.77985997850639366</v>
+      </c>
+      <c r="F8">
+        <f>M7*$L$3*D3*$I$3</f>
+        <v>21.077296716389018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>SUM(C8:F8)</f>
+        <v>30.288075381451019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>33016293.950866837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>9171.192764129677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>295.84492787515086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>24.653743989595906</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCB8C31-4AC9-45F3-9922-664C699D174A}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="C8">
+        <f>N3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="D8">
+        <f>V3*$L$3*C3*$I$3</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="E8">
+        <f>AA3*$L$3*D3*$I$3</f>
+        <v>0.77985997850639366</v>
+      </c>
+      <c r="F8">
+        <f>N7*$L$3*D3*$I$3</f>
+        <v>21.077296716389018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>(5*D8+2*C8+F8)</f>
+        <v>44.262323104416936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>22592578.28923602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>6275.7161914544504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>202.44245778885323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>16.870204815737768</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D61920-EFB6-426C-8A89-7AB4C085100D}">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="B8">
+        <f>M3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="E8">
+        <f>W3*$L$3*H3*$I$3*C3*K3</f>
+        <v>132.78696931325078</v>
+      </c>
+      <c r="F8">
+        <f>Z3*$L$3*H3*$I$3*D3*K3</f>
+        <v>7.3770538507361554</v>
+      </c>
+      <c r="G8">
+        <f>V3*$L$3*J3*$I$3*C3</f>
+        <v>3.1615945074583527</v>
+      </c>
+      <c r="I8">
+        <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>31.615945074583529</v>
+      </c>
+      <c r="J8">
+        <f>$U$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>63.231890149167057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>(12*B8+12*G8+I8+14*F8)</f>
+        <v>248.71210125339041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>4020713.0853725118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>1116.8647459368087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>36.027895030219639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>3.0023245858516368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CFF466-4126-4850-9B00-B4D776A2A6D6}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,7 +2763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -717,16 +2802,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -735,16 +2820,16 @@
         <v>2</v>
       </c>
       <c r="S3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="T3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -776,13 +2861,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>M3*$L$3*J3*$I$3*A3</f>
-        <v>4.7423917611875286</v>
+        <v>6.3231890149167054</v>
       </c>
       <c r="C8">
         <f>N3*$L$3*J3*$I$3*A3</f>
@@ -790,11 +2875,11 @@
       </c>
       <c r="D8">
         <f>O3*$L$3*J3*$I$3*A3</f>
-        <v>4.7423917611875286</v>
+        <v>6.3231890149167054</v>
       </c>
       <c r="E8">
         <f>P3*$L$3*J3*$I$3*A3</f>
-        <v>9.4847835223750572</v>
+        <v>6.3231890149167054</v>
       </c>
       <c r="F8">
         <f>Q3*$L$3*J3*$I$3*B3</f>
@@ -802,64 +2887,64 @@
       </c>
       <c r="G8">
         <f>U3*$L$3*J3*$I$3*C3</f>
-        <v>6.3231890149167054</v>
+        <v>3.1615945074583527</v>
       </c>
       <c r="H8">
         <f>$U$3*$L$3*$J$3*$I$3*D3</f>
-        <v>6.3231890149167054</v>
+        <v>3.1615945074583527</v>
       </c>
       <c r="I8">
         <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>75.878268179000457</v>
+        <v>37.939134089500229</v>
       </c>
       <c r="J8">
         <f>$T$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>63.231890149167057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+        <v>31.615945074583529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <f>1/(1/B8+1/C8)+I8+D8+E8+F8+G8+H8+J8</f>
-        <v>170.27444704454271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+        <f>B8+C8+I8+D8+E8+F8+G8+H8+J8</f>
+        <v>102.75182149239646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>5872871.8099340312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+        <v>9732187.5707478244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B14">
         <f>B13/3600</f>
-        <v>1631.3532805372308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+        <v>2703.3854363188402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>52.624299372168736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+        <v>87.205981816736781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>4.385358281014061</v>
+        <v>7.2671651513947317</v>
       </c>
     </row>
   </sheetData>
@@ -872,4 +2957,644 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF515AFC-47F7-4844-B3E0-223C0B0F5040}">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="B8">
+        <f>M3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="C8">
+        <f>N3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="D8">
+        <f>O3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="E8">
+        <f>P3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="G8">
+        <f>V3*$L$3*J3*$I$3*C3</f>
+        <v>3.1615945074583527</v>
+      </c>
+      <c r="I8">
+        <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>31.615945074583529</v>
+      </c>
+      <c r="J8">
+        <f>$U$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>63.231890149167057</v>
+      </c>
+      <c r="K8">
+        <f>U$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>63.231890149167057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>(10*B8+2*I8+2*J8+2*G8+2*K8)</f>
+        <v>385.71452990991907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>2592590.9512238051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>720.16415311772369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>23.231101713474956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>1.9359251427895796</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC0BEA-6801-4FF3-AB03-1E6E1E16D5C5}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="5">
+        <f>EXP(-2114 * (1/(60 + 273) - 1/298))</f>
+        <v>2.1077296716389018</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="B8">
+        <f>M3*$L$3*J3*$I$3*A3</f>
+        <v>6.3231890149167054</v>
+      </c>
+      <c r="E8">
+        <f>W3*$L$3*I3*$I$3*C3*K3</f>
+        <v>26.557393862650159</v>
+      </c>
+      <c r="F8">
+        <f>Z3*$L$3*I3*$I$3*D3*K3</f>
+        <v>1.4754107701472312</v>
+      </c>
+      <c r="G8">
+        <f>V3*$L$3*J3*$I$3*C3</f>
+        <v>3.1615945074583527</v>
+      </c>
+      <c r="I8">
+        <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>31.615945074583529</v>
+      </c>
+      <c r="J8">
+        <f>$X$3*$L$3*$J$3*$I$3*$D$3</f>
+        <v>37.939134089500229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>(6*I8+J8+12*G8+24*B8+6*E8+B8+G8+6*J8+6*F8)</f>
+        <v>822.64689084066345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <f>1/(B12*10^(-9))</f>
+        <v>1215588.3783601238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <f>B13/3600</f>
+        <v>337.66343843336773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f>B14/31</f>
+        <v>10.892368981721539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>B15/12</f>
+        <v>0.90769741514346158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentación/Documentación Diseño/Confiabilidad.xlsx
+++ b/Documentación/Documentación Diseño/Confiabilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Documents\Informatica\Tesis-LGBS\Documentación\Documentación Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glinares\Downloads\Tesis-LGBS\Documentación\Documentación Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C3B3D8-40AC-4042-AC3C-753534BF1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D0AF71-F699-4E4B-BBF3-DFDF9FB85F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2F866EF-2114-45E6-8A96-64F5B5ACC2C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2F866EF-2114-45E6-8A96-64F5B5ACC2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sistema" sheetId="14" r:id="rId1"/>
@@ -687,23 +687,23 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -858,16 +858,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -919,62 +919,62 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>MainBoard!$B$12</f>
-        <v>1454.4455817920971</v>
+        <v>4603.9557724663864</v>
       </c>
       <c r="C8">
         <f>ExpBoard!$B$12</f>
-        <v>1444.3988889679015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5308.7104689506632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <f>SUM(B8:H8)</f>
-        <v>2898.8444707599983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <f>B8+C8</f>
+        <v>9912.6662414170496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>344965.04041068029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>100881.03196915933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>95.823622336300076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>4203.3763320483058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>3.091084591493551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>135.59278490478405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>0.2575903826244626</v>
+        <v>11.299398742065337</v>
       </c>
     </row>
   </sheetData>
@@ -994,23 +994,23 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1165,16 +1165,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1236,21 +1236,21 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>CAN!$B$12</f>
-        <v>44.262323104416936</v>
+        <v>69.55507916408375</v>
       </c>
       <c r="C8">
         <f>Buck!$B$12</f>
-        <v>102.75182149239646</v>
+        <v>184.95327868631358</v>
       </c>
       <c r="D8">
         <f>ModulosTrifasica!B12</f>
-        <v>822.64689084066345</v>
+        <v>3042.9293269450823</v>
       </c>
       <c r="E8">
         <v>240</v>
@@ -1260,56 +1260,56 @@
       </c>
       <c r="G8">
         <f>DiffDrivers!B12</f>
-        <v>30.288075381451019</v>
+        <v>42.934453411284423</v>
       </c>
       <c r="H8">
         <f>Flyback!$B$12</f>
-        <v>248.71210125339041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1797.8934099079834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>SUM(E8:H8)+SUM(B8:C8)+2*D8/3</f>
-        <v>1454.4455817920971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4603.9557724663864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>687547.20872254879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>217204.51920507691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>190.98533575626357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>9050.1883002115374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>6.1608172824601146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>291.9415580713399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>0.51340144020500955</v>
+        <v>24.328463172611659</v>
       </c>
     </row>
   </sheetData>
@@ -1329,22 +1329,22 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1499,16 +1499,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -1520,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1566,73 +1566,73 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>Flyback!$B$12</f>
-        <v>248.71210125339041</v>
+        <v>1797.8934099079834</v>
       </c>
       <c r="C8">
         <f>Buck!$B$12</f>
-        <v>102.75182149239646</v>
+        <v>184.95327868631358</v>
       </c>
       <c r="D8">
         <f>ModulosTrifasica!B12</f>
-        <v>822.64689084066345</v>
+        <v>3042.9293269450823</v>
       </c>
       <c r="E8">
         <v>240</v>
       </c>
       <c r="F8">
         <f>DiffDrivers!B12</f>
-        <v>30.288075381451019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>42.934453411284423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>SUM(B8:F8)</f>
-        <v>1444.3988889679015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5308.7104689506632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>692329.52727798908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>188369.66262310839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>192.31375757721918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>7848.7359426295161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>6.2036695992651349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>253.18503040740376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>0.51697246660542795</v>
+        <v>21.098752533950314</v>
       </c>
     </row>
   </sheetData>
@@ -1652,22 +1652,22 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1825,16 +1825,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -1843,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -1870,12 +1870,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="M6" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1901,13 +1901,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="C8">
         <f>N3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="D8">
         <f>V3*$L$3*C3*$I$3</f>
@@ -1922,49 +1922,49 @@
         <v>21.077296716389018</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>SUM(C8:F8)</f>
-        <v>30.288075381451019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>42.934453411284423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>33016293.950866837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23291317.82395466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>9171.192764129677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>970471.57599811081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>295.84492787515086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>31305.534709616477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>24.653743989595906</v>
+        <v>2608.7945591347066</v>
       </c>
     </row>
   </sheetData>
@@ -1984,22 +1984,22 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2157,16 +2157,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -2175,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3">
         <v>10</v>
@@ -2202,7 +2202,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="M6" s="7" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2239,13 +2239,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="C8">
         <f>N3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="D8">
         <f>V3*$L$3*C3*$I$3</f>
@@ -2260,49 +2260,49 @@
         <v>21.077296716389018</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>(5*D8+2*C8+F8)</f>
-        <v>44.262323104416936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>69.55507916408375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>22592578.28923602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>14377095.274968378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>6275.7161914544504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>599045.63645701576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>202.44245778885323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>19324.052788935991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>16.870204815737768</v>
+        <v>1610.3377324113326</v>
       </c>
     </row>
   </sheetData>
@@ -2321,21 +2321,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D61920-EFB6-426C-8A89-7AB4C085100D}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2490,16 +2490,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -2508,10 +2508,10 @@
         <v>2</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2559,13 +2559,13 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
-        <f>M3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <f>M3*$L$3*J3*$I$3*A3*E3</f>
+        <v>132.78696931325081</v>
       </c>
       <c r="E8">
         <f>W3*$L$3*H3*$I$3*C3*K3</f>
@@ -2581,56 +2581,56 @@
       </c>
       <c r="I8">
         <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>31.615945074583529</v>
+        <v>63.231890149167057</v>
       </c>
       <c r="J8">
         <f>$U$3*$L$3*$J$3*$I$3*$D$3</f>
         <v>63.231890149167057</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>(12*B8+12*G8+I8+14*F8)</f>
-        <v>248.71210125339041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1797.8934099079834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>4020713.0853725118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>556206.49950053508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>1116.8647459368087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>23175.270812522296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>36.027895030219639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>747.58938104910635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>3.0023245858516368</v>
+        <v>62.299115087425527</v>
       </c>
     </row>
   </sheetData>
@@ -2650,20 +2650,20 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2802,16 +2802,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -2823,13 +2823,13 @@
         <v>12</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2861,25 +2861,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>M3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="C8">
         <f>N3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="D8">
         <f>O3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="E8">
         <f>P3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="F8">
         <f>Q3*$L$3*J3*$I$3*B3</f>
@@ -2899,52 +2899,52 @@
       </c>
       <c r="J8">
         <f>$T$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>31.615945074583529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>63.231890149167057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>B8+C8+I8+D8+E8+F8+G8+H8+J8</f>
-        <v>102.75182149239646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>184.95327868631358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>9732187.5707478244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5406770.8726376817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>2703.3854363188402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>225282.11969323675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>87.205981816736781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7267.1651513947336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>7.2671651513947317</v>
+        <v>605.59709594956109</v>
       </c>
     </row>
   </sheetData>
@@ -2963,21 +2963,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF515AFC-47F7-4844-B3E0-223C0B0F5040}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3120,16 +3120,16 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -3138,10 +3138,10 @@
         <v>2</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,25 +3181,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>M3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="C8">
         <f>N3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="D8">
         <f>O3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="E8">
         <f>P3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="G8">
         <f>V3*$L$3*J3*$I$3*C3</f>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I8">
         <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>31.615945074583529</v>
+        <v>63.231890149167057</v>
       </c>
       <c r="J8">
         <f>$U$3*$L$3*$J$3*$I$3*$D$3</f>
@@ -3218,49 +3218,49 @@
         <v>63.231890149167057</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>(10*B8+2*I8+2*J8+2*G8+2*K8)</f>
-        <v>385.71452990991907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>575.41020035742008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>2592590.9512238051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1737890.6376335402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>720.16415311772369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>72412.109901397504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>23.231101713474956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2335.8745129483063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>1.9359251427895796</v>
+        <v>194.65620941235886</v>
       </c>
     </row>
   </sheetData>
@@ -3279,21 +3279,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC0BEA-6801-4FF3-AB03-1E6E1E16D5C5}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3447,25 +3447,25 @@
         <v>2.1077296716389018</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3513,78 +3513,78 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1E-8</v>
       </c>
       <c r="B8">
         <f>M3*$L$3*J3*$I$3*A3</f>
-        <v>6.3231890149167054</v>
+        <v>18.969567044750114</v>
       </c>
       <c r="E8">
         <f>W3*$L$3*I3*$I$3*C3*K3</f>
-        <v>26.557393862650159</v>
+        <v>265.57393862650162</v>
       </c>
       <c r="F8">
-        <f>Z3*$L$3*I3*$I$3*D3*K3</f>
-        <v>1.4754107701472312</v>
+        <f>Z3*$L$3*I3*$I$3*D3*K3*H3</f>
+        <v>7.3770538507361563</v>
       </c>
       <c r="G8">
-        <f>V3*$L$3*J3*$I$3*C3</f>
-        <v>3.1615945074583527</v>
+        <f>V3*$L$3*K3*$I$3*G3</f>
+        <v>10.327875391030618</v>
       </c>
       <c r="I8">
-        <f>$S$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>31.615945074583529</v>
+        <f>$S$3*$L$3*$K$3*$I$3*$D$3</f>
+        <v>29.508215402944622</v>
       </c>
       <c r="J8">
-        <f>$X$3*$L$3*$J$3*$I$3*$D$3</f>
-        <v>37.939134089500229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <f>$X$3*$L$3*$K$3*$I$3*$D$3*H3</f>
+        <v>88.524646208833872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
         <f>(6*I8+J8+12*G8+24*B8+6*E8+B8+G8+6*J8+6*F8)</f>
-        <v>822.64689084066345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3042.9293269450823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>1215588.3783601238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>328630.70172054891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <f>B13/3600</f>
-        <v>337.66343843336773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <f>B13/24</f>
+        <v>13692.945905022871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>10.892368981721539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>441.70793242009262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>0.90769741514346158</v>
+        <v>36.808994368341054</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Documentación Diseño/Confiabilidad.xlsx
+++ b/Documentación/Documentación Diseño/Confiabilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glinares\Downloads\Tesis-LGBS\Documentación\Documentación Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D0AF71-F699-4E4B-BBF3-DFDF9FB85F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E361D3-D22C-4B67-A059-92823DE91704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2F866EF-2114-45E6-8A96-64F5B5ACC2C1}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="77">
   <si>
     <t>C</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>λ_exp</t>
+  </si>
+  <si>
+    <t>Considerando un Hot Spare</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,13 +935,25 @@
         <v>5308.7104689506632</v>
       </c>
     </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <f>B8+C8</f>
-        <v>9912.6662414170496</v>
+        <f>B8+C8*9</f>
+        <v>52382.349993022362</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <f>B8+C8*72/17</f>
+        <v>27087.905993904493</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -947,7 +962,14 @@
       </c>
       <c r="B13">
         <f>1/(B12*10^(-9))</f>
-        <v>100881.03196915933</v>
+        <v>19090.399726877582</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <f>1/(E12*10^(-9))</f>
+        <v>36916.844005034087</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -956,7 +978,14 @@
       </c>
       <c r="B14">
         <f>B13/24</f>
-        <v>4203.3763320483058</v>
+        <v>795.43332195323262</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <f>E13/24</f>
+        <v>1538.2018335430869</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -965,7 +994,14 @@
       </c>
       <c r="B15">
         <f>B14/31</f>
-        <v>135.59278490478405</v>
+        <v>25.659139417846212</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <f>E14/31</f>
+        <v>49.61941398526087</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -974,7 +1010,14 @@
       </c>
       <c r="B16">
         <f>B15/12</f>
-        <v>11.299398742065337</v>
+        <v>2.1382616181538512</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <f>E15/12</f>
+        <v>4.1349511654384061</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3323,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
